--- a/data/income_statement/3digits/total/275_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/275_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>275-Manufacture of domestic appliances</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>275-Manufacture of domestic appliances</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>12804794.50037</v>
@@ -962,37 +868,42 @@
         <v>20307278.58512</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>22212038.86078</v>
+        <v>22212259.85943</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>24331665.03645</v>
+        <v>24334704.94782</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>14593597.83816</v>
+        <v>27584057.59303</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>31581411.8263</v>
+        <v>31643412.82802</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>38862612.19305</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>50771026.03684001</v>
+        <v>50771834.85757</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>57182916.54258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>57232464.99775</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>74692879.34</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>6816279.74061</v>
+        <v>6816279.740610001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>7814249.3393</v>
+        <v>7814249.339299999</v>
       </c>
       <c r="E6" s="48" t="n">
         <v>10222850.55567</v>
@@ -1001,31 +912,36 @@
         <v>10867371.29333</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>11727894.53846</v>
+        <v>11727896.23846</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>12481227.06597</v>
+        <v>12484266.97734</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>8129072.44276</v>
+        <v>14254166.37293</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>16293822.24658</v>
+        <v>16345353.01374</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>18911830.99667</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>21882101.12234</v>
+        <v>21882794.43907</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>24720726.23211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>24769990.24331</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>35875268.628</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>5586588.32301</v>
@@ -1040,31 +956,36 @@
         <v>8715780.60991</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>9568590.21747</v>
+        <v>9568809.516120002</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>10933708.76164</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>6364302.779590001</v>
+        <v>12225369.68089</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>13950576.3318</v>
+        <v>13959034.50138</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>18056905.47399</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>26300034.99111</v>
+        <v>26300135.49511</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>29746378.5064</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>29746502.11055</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>37638768.625</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>401926.43675</v>
@@ -1073,46 +994,51 @@
         <v>465948.89553</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>690005.2321700001</v>
+        <v>690005.23217</v>
       </c>
       <c r="F8" s="48" t="n">
         <v>724126.68188</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>915554.1048499998</v>
+        <v>915554.10485</v>
       </c>
       <c r="H8" s="48" t="n">
         <v>916729.2088399999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>100222.61581</v>
+        <v>1104521.53921</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1337013.24792</v>
+        <v>1339025.3129</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1893875.72239</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2588889.923389999</v>
+        <v>2588904.92339</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>2715811.80407</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2715972.64389</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1178842.087</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>532040.93522</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>450931.4339600001</v>
+        <v>450931.43396</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>567442.6163199999</v>
+        <v>567442.61632</v>
       </c>
       <c r="F9" s="47" t="n">
         <v>652466.58209</v>
@@ -1121,37 +1047,42 @@
         <v>809384.34815</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>962377.41897</v>
+        <v>962377.5138899999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>406834.21809</v>
+        <v>1110168.79024</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1199328.27282</v>
+        <v>1200354.39546</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>1025792.03028</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1768986.58776</v>
+        <v>1769012.45174</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1999449.59934</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2000592.84945</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2135522.012</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>163447.3069800001</v>
+        <v>163447.30698</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>69033.82451999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>82093.70084999999</v>
+        <v>82093.70085000001</v>
       </c>
       <c r="F10" s="48" t="n">
         <v>109881.7085</v>
@@ -1160,28 +1091,33 @@
         <v>163669.67438</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>181043.49095</v>
+        <v>181043.58587</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>87979.11100999999</v>
+        <v>158555.33099</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>212556.53838</v>
+        <v>213534.71684</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>206178.36657</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>235598.15017</v>
+        <v>235624.01415</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>347387.35044</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>348380.97091</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>396298.73</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>254931.49811</v>
@@ -1202,7 +1138,7 @@
         <v>554089.3698</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>310741.03567</v>
+        <v>696622.4031799999</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>729740.8197100001</v>
@@ -1214,13 +1150,18 @@
         <v>1048896.27252</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1097527.46946</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1097529.48028</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>998089.607</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>113662.13013</v>
@@ -1241,10 +1182,10 @@
         <v>227244.55822</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>8114.07141</v>
+        <v>254991.05607</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>257030.91473</v>
+        <v>257078.85891</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>313217.30223</v>
@@ -1253,13 +1194,18 @@
         <v>484492.16507</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>554534.77944</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>554682.39826</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>741133.675</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>12272753.56515</v>
@@ -1274,31 +1220,36 @@
         <v>19654812.00303</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>21402654.51263</v>
+        <v>21402875.51128</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>23369287.61747999</v>
+        <v>23372327.43393</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>14186763.62007</v>
+        <v>26473888.80279</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>30382083.55348</v>
+        <v>30443058.43256</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>37836820.16277</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>49002039.44908001</v>
+        <v>49002822.40583</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>55183466.94323999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>55231872.14829999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>72557357.32799999</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>9044153.15501</v>
@@ -1313,34 +1264,39 @@
         <v>15766683.29098</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>16560745.22973</v>
+        <v>16560853.40838</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>18532367.34994</v>
+        <v>18535396.51464</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>11394553.06241</v>
+        <v>20490233.28766</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>23154030.64578</v>
+        <v>23204312.96071</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>30549297.74132999</v>
+        <v>30549297.74133</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>39924668.11554001</v>
+        <v>39925285.44412</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>45283622.41144999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>45322222.28065</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>56857320.522</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>6896431.708730001</v>
+        <v>6896431.708729999</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>8023557.16367</v>
@@ -1355,28 +1311,33 @@
         <v>12423682.19217</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>14371289.94</v>
+        <v>14374292.92057</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>9256695.078639999</v>
+        <v>15887278.92046</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>17997686.01103</v>
+        <v>18046866.32053</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>23497647.25172</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>31564245.33107</v>
+        <v>31564346.07407</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>36567211.97726</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>36599025.92254999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>45441060.184</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>1444150.84616</v>
@@ -1391,31 +1352,36 @@
         <v>2542996.66518</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2728359.71554</v>
+        <v>2728467.89419</v>
       </c>
       <c r="H16" s="48" t="n">
         <v>2645380.31221</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1421305.13953</v>
+        <v>2916309.4629</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3316432.02318</v>
+        <v>3317532.76677</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>4164574.15881</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>4505532.75046</v>
+        <v>4506049.336039999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>4356323.991769999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4363038.8243</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5992617.276</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>125502.29661</v>
@@ -1436,7 +1402,7 @@
         <v>163067.01557</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>62262.05654999999</v>
+        <v>189160.67815</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>233190.09688</v>
@@ -1448,19 +1414,24 @@
         <v>100052.0321</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>112790.84633</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>112793.12429</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>221973.498</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>578068.30351</v>
+        <v>578068.3035099999</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>704538.50119</v>
+        <v>704538.5011900001</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>1008526.34727</v>
@@ -1472,28 +1443,33 @@
         <v>1261809.24621</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1352630.08216</v>
+        <v>1352656.26629</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>654290.78769</v>
+        <v>1497484.22615</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1606722.51469</v>
+        <v>1606723.77653</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>2806103.545889999</v>
+        <v>2806103.54589</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>3754838.00191</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>4247295.59609</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4247364.40951</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>5201669.564</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>3228600.41014</v>
@@ -1508,31 +1484,36 @@
         <v>3888128.71205</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>4841909.2829</v>
+        <v>4842022.1029</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>4836920.267540001</v>
+        <v>4836930.919290001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2792210.55766</v>
+        <v>5983655.51513</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>7228052.907699999</v>
+        <v>7238745.47185</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>7287522.421440001</v>
+        <v>7287522.42144</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>9077371.33354</v>
+        <v>9077536.961709999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>9899844.531789999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>9909649.867650002</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>15700036.806</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>2027065.36095</v>
@@ -1547,37 +1528,42 @@
         <v>2968223.33734</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>3245435.28065</v>
+        <v>3245491.63004</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>3537341.45867</v>
+        <v>3538067.15057</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1860187.77329</v>
+        <v>4157364.34941</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>5022902.272179999</v>
+        <v>5025991.592580001</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>4462311.24672</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>5433972.86619</v>
+        <v>5434476.60667</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>6081225.735090001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>6086395.73666</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>7548893.499</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>80290.73774</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>95814.5428</v>
+        <v>95814.54280000001</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>119037.14903</v>
@@ -1589,10 +1575,10 @@
         <v>163957.19507</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>162848.83712</v>
+        <v>162850.4124</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>68301.93708</v>
+        <v>224277.43857</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>225051.39417</v>
@@ -1604,13 +1590,18 @@
         <v>304369.00027</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>403542.9356300001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>403545.18293</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>479635.013</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>1225244.1162</v>
@@ -1628,34 +1619,39 @@
         <v>1950070.32338</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>2118804.61314</v>
+        <v>2118874.0724</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>987515.7663</v>
+        <v>2501977.03306</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>3077771.88714</v>
+        <v>3078183.5343</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>2414042.56743</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>2963262.57112</v>
+        <v>2963283.39468</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>3187274.52369</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>3188552.97429</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>3949537.92</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>721530.5070100001</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>839089.9659099998</v>
+        <v>839089.9659099999</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>973448.1936</v>
@@ -1664,37 +1660,42 @@
         <v>1069579.97802</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1131407.7622</v>
+        <v>1131464.11159</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1255688.00841</v>
+        <v>1256342.66577</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>804370.06991</v>
+        <v>1431109.87778</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1720078.99087</v>
+        <v>1722756.66411</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1788768.49896</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2166341.2948</v>
+        <v>2166824.21172</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2490408.27577</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2494297.57944</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>3119720.566</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>1201535.04919</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>936609.7122899999</v>
+        <v>936609.7122900001</v>
       </c>
       <c r="E24" s="47" t="n">
         <v>1013023.59563</v>
@@ -1703,31 +1704,36 @@
         <v>919905.37471</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1596474.00225</v>
+        <v>1596530.47286</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1299578.80887</v>
+        <v>1298863.76872</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>932022.7843699999</v>
+        <v>1826291.16572</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2205150.63552</v>
+        <v>2212753.87927</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>2825211.17472</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>3643398.46735</v>
+        <v>3643060.35504</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>3818618.7967</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3823254.13099</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>8151143.307</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>549621.5581899999</v>
@@ -1739,34 +1745,39 @@
         <v>818156.0015599999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>521044.60329</v>
+        <v>521044.6032900001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>984668.6067199999</v>
+        <v>984677.2703100001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1017867.78309</v>
+        <v>1017999.8796</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>950433.7562300001</v>
+        <v>1744193.50577</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1480105.90411</v>
+        <v>1480597.95696</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>2086218.71009</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>9130837.076860001</v>
+        <v>9130951.81914</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>5440298.177910001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>5442313.91565</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>8686988.321</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>12826.35778</v>
@@ -1787,7 +1798,7 @@
         <v>108127.88732</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>303.45408</v>
+        <v>188499.48906</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>35778.83979</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>425202.12391</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>759305.428</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,14 +1856,19 @@
       <c r="M27" s="48" t="n">
         <v>10895.76159</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>4965.078</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>73249.61076</v>
+        <v>73249.61076000001</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>53327.6738</v>
@@ -1862,28 +1883,33 @@
         <v>47553.96447</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>51085.67038</v>
+        <v>51213.54287</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>119009.11922</v>
+        <v>134091.87884</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>109829.16344</v>
+        <v>109891.2936</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>70764.58234000001</v>
+        <v>70764.58233999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>466556.90241</v>
+        <v>466558.9930200001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>481435.6761</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>481599.04967</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>237493.427</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>542.8703300000001</v>
@@ -1916,13 +1942,18 @@
         <v>944.51096</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>62515.86623</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>62515.86623000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>67.56699999999999</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>7561.41923</v>
@@ -1943,7 +1974,7 @@
         <v>11065.05656</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>11914.07238</v>
+        <v>12662.63966</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>10247.27479</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>7950.08191</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>18939.46</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>189.20243</v>
@@ -1982,67 +2018,77 @@
         <v>11642.25953</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>77.20036</v>
+        <v>110.12967</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>90.08895999999999</v>
+        <v>111.36811</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>475.97222</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1893.47436</v>
+        <v>1963.34457</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>2187.48053</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>5363.535</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>291279.8968399999</v>
+        <v>291279.8968400001</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>200941.03458</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>312038.3599900001</v>
+        <v>312038.35999</v>
       </c>
       <c r="F32" s="48" t="n">
         <v>225139.65926</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>458191.78908</v>
+        <v>458200.45267</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>478212.64505</v>
+        <v>478216.16992</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>349545.76512</v>
+        <v>830453.97854</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>717377.69935</v>
+        <v>717784.4336900001</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>1304065.78767</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>5902382.025239999</v>
+        <v>5902449.235510001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>3236108.109019999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>3236545.06522</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>6127938.385</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>74314.32944999999</v>
+        <v>74314.32945</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>30008.75481</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>174660.52444</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>168140.936</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.20138</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>89657.66998999999</v>
@@ -2135,67 +2191,77 @@
         <v>245136.89263</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>307392.64316</v>
+        <v>307393.34231</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>420446.00296</v>
+        <v>529237.24789</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>556420.45466</v>
+        <v>556422.36386</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>561130.44232</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1551318.03296</v>
+        <v>1551293.60415</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1039342.55418</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1040757.96215</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1364774.505</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>374426.8123</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>321758.54546</v>
+        <v>321758.5454600001</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>611457.13807</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>537060.0836799999</v>
+        <v>537060.08368</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>791876.18825</v>
+        <v>791877.1624699999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>688550.59078</v>
+        <v>688554.8684599999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>817760.35999</v>
+        <v>1248193.90568</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>907296.37738</v>
+        <v>907860.25427</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1611237.92229</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>5873062.26972</v>
+        <v>5873143.039789999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>3518464.94745</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>3520948.83821</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>6299551.625</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>2711.70452</v>
@@ -2228,19 +2294,24 @@
         <v>2568.48335</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>5061.956020000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>5061.95602</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>24029.612</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>57814.12837000001</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>53585.19569000001</v>
+        <v>53585.19569</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>78342.18432000001</v>
@@ -2255,10 +2326,10 @@
         <v>103346.59909</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>33366.72034000001</v>
+        <v>107876.81372</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>124151.96275</v>
+        <v>124253.70147</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>140543.69446</v>
@@ -2267,13 +2338,18 @@
         <v>254694.35911</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>220810.44033</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>220858.44033</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>279626.614</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>767.4054</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>4834.944820000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>167.684</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>214431.84423</v>
@@ -2321,37 +2402,42 @@
         <v>146347.04004</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>326014.5045799999</v>
+        <v>326014.5045800001</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>256306.15389</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>349021.41846</v>
+        <v>349022.39268</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>423456.16926</v>
+        <v>423460.44694</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>426250.61777</v>
+        <v>771884.0428399999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>629867.5316700001</v>
+        <v>630306.39044</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>1070190.31899</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>5098333.8106</v>
+        <v>5098414.54182</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2815793.81895</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2818227.9778</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>5367773.635</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>28035.29384</v>
@@ -2372,7 +2458,7 @@
         <v>40482.47649</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>42051.20977</v>
+        <v>43770.02278</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>56315.7097</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>144111.26743</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>155048.436</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>26.66742</v>
@@ -2425,17 +2516,22 @@
       <c r="M42" s="48" t="n">
         <v>0.00025</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.388</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>70639.76852000001</v>
+        <v>70639.76852</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>90776.17975000001</v>
+        <v>90776.17975</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>144560.80187</v>
@@ -2450,25 +2546,30 @@
         <v>118812.2904</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>308424.02934</v>
+        <v>316995.24357</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>95716.12829000001</v>
+        <v>95739.40768999999</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>331200.70359</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>352211.7889099999</v>
+        <v>352211.8277600001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>327852.51965</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>327854.25156</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>472905.256</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>478905.06817</v>
@@ -2486,28 +2587,33 @@
         <v>1003535.58273</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>618531.62586</v>
+        <v>618532.41738</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>444117.59103</v>
+        <v>1292901.32051</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1542649.52897</v>
+        <v>1543017.56195</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1958898.2468</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>4305016.72217</v>
+        <v>4305019.708360001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>3202087.55826</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>3207472.78254</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>4218613.291</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>201148.77333</v>
@@ -2516,7 +2622,7 @@
         <v>144615.51894</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>375084.1288300001</v>
+        <v>375084.12883</v>
       </c>
       <c r="F45" s="48" t="n">
         <v>221367.2386</v>
@@ -2525,28 +2631,33 @@
         <v>309418.26977</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>330855.46657</v>
+        <v>330856.25809</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>350442.47622</v>
+        <v>504475.19043</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>616224.80145</v>
+        <v>616592.83443</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>935166.09619</v>
+        <v>935166.0961900001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2224167.17759</v>
+        <v>2224170.16378</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1809317.84549</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1814703.06977</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1874767.204</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>277756.29484</v>
@@ -2567,10 +2678,10 @@
         <v>287676.15929</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>93675.11481</v>
+        <v>788426.13008</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>926424.7275200001</v>
+        <v>926424.72752</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>1023732.15061</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>1392769.71277</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>2343846.087</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>897824.72691</v>
@@ -2594,37 +2710,42 @@
         <v>829637.4458400001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>586771.4946</v>
+        <v>586771.4945999999</v>
       </c>
       <c r="F47" s="47" t="n">
         <v>585915.75907</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>785730.8379900001</v>
+        <v>785794.9979699999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1010364.37532</v>
+        <v>1009776.36248</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>620578.58958</v>
+        <v>1029389.4453</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1235310.63328</v>
+        <v>1242474.02001</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1341293.71572</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>2596156.55232</v>
+        <v>2595849.42603</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2538364.4689</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2537146.425890001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>6319966.712</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>64127.57861</v>
@@ -2642,28 +2763,33 @@
         <v>58836.21092</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>79138.35718000001</v>
+        <v>79195.94265</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>135025.05823</v>
+        <v>225899.09649</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>302153.04544</v>
+        <v>302215.26107</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>113964.83859</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>122369.62702</v>
+        <v>122457.64217</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>137322.12927</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>137719.62542</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>549171.0699999999</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>3945.016</v>
@@ -2672,7 +2798,7 @@
         <v>23269.23523</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>59294.20964000001</v>
+        <v>59294.20964</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>2106.4331</v>
@@ -2687,7 +2813,7 @@
         <v>31988.11636</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>4982.256520000001</v>
+        <v>5022.581220000001</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>7357.26528</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>4041.71383</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>28718.644</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>60182.56261</v>
@@ -2720,31 +2851,36 @@
         <v>56678.44368</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>73362.90124000001</v>
+        <v>73420.48671000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>103036.94187</v>
+        <v>193910.98013</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>297170.78892</v>
+        <v>297192.67985</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>106607.57331</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>111558.68432</v>
+        <v>111646.69947</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>133280.41544</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>133677.91159</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>520452.426</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>48001.62958</v>
+        <v>48001.62958000001</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>53050.36108</v>
@@ -2753,34 +2889,39 @@
         <v>128377.16902</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>74929.69038000001</v>
+        <v>74929.69038</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>74127.45270000001</v>
+        <v>74127.45269999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>63243.03942999999</v>
+        <v>63243.03943</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>68272.76815</v>
+        <v>71159.97555000002</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>162274.21301</v>
+        <v>162496.35377</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>125257.57956</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>198396.26246</v>
+        <v>198414.24337</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>158604.30267</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>158645.39961</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>292372.698</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>20845.15106</v>
@@ -2815,14 +2956,19 @@
       <c r="M52" s="48" t="n">
         <v>45895.53780000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>136273.856</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>5258.934139999999</v>
+        <v>5258.93414</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>3656.47223</v>
@@ -2840,10 +2986,10 @@
         <v>10241.49996</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>18693.29426</v>
+        <v>18695.97369</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>13889.1956</v>
+        <v>14022.0651</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>10795.30311</v>
@@ -2852,13 +2998,18 @@
         <v>49631.04412000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>19355.92321</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>19361.32581</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>77057.80499999999</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>21897.54438</v>
@@ -2879,64 +3030,74 @@
         <v>35544.86325</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>31701.17698</v>
+        <v>34585.70494999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>124268.29883</v>
+        <v>124357.57009</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>82728.53114000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>86443.82423</v>
+        <v>86461.80513999998</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>93352.84165999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>93388.53599999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>79041.037</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>913950.67594</v>
+        <v>913950.6759400001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>831466.9604100001</v>
+        <v>831466.9604099999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>569610.7127800001</v>
+        <v>569610.7127799999</v>
       </c>
       <c r="F55" s="47" t="n">
         <v>538200.4649500001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>770439.59621</v>
+        <v>770503.7561900001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1026259.69307</v>
+        <v>1025729.2657</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>687330.8796600001</v>
+        <v>1184128.56624</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1375189.46571</v>
+        <v>1382192.92731</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1330000.97475</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>2520129.916879999</v>
+        <v>2519892.82483</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2517082.2955</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2516220.6517</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>6576765.084</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>125083.99694</v>
@@ -2948,70 +3109,78 @@
         <v>103660.21415</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>87906.15748000001</v>
+        <v>87906.15747999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>98356.82700000002</v>
+        <v>98369.65899</v>
       </c>
       <c r="H56" s="47" t="n">
         <v>136608.69863</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>79566.63087000001</v>
+        <v>125856.80882</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>113489.98238</v>
+        <v>114190.97616</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>85419.95178000002</v>
+        <v>85419.95178</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>103822.0515</v>
+        <v>103827.57487</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>123719.53165</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>123924.82632</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>252415.233</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>788866.679</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>709001.6596000001</v>
+        <v>709001.6595999999</v>
       </c>
       <c r="E57" s="47" t="n">
         <v>465950.49863</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>450294.30747</v>
+        <v>450294.3074699999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>672082.7692100001</v>
+        <v>672134.0972000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>889650.99444</v>
+        <v>889120.5670700001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>607764.24879</v>
+        <v>1058271.75742</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1261699.48333</v>
+        <v>1268001.95115</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1244581.02297</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>2416307.86538</v>
+        <v>2416065.24996</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2393362.76385</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2392295.82538</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>6324349.851</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>671</v>
@@ -3044,28 +3216,31 @@
         <v>659</v>
       </c>
       <c r="G59" s="35" t="n">
+        <v>595</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>597</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>597</v>
+      </c>
+      <c r="J59" s="35" t="n">
         <v>594</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>596</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>590</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>588</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>591</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>545</v>
+        <v>602</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>620</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>